--- a/Datasets/Rect_Dataset.xlsx
+++ b/Datasets/Rect_Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris\Desktop\Lakehead University\Courses\6 Graduate Studies\2 Fall 2019\Machine Learning LS\Python\Data All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE92C6-3D2C-4C7C-8586-38B64B36F94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BD29D-448E-48AB-98B2-F861CF24CCF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{025A096D-40E9-A34E-9267-A7046B910FF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{025A096D-40E9-A34E-9267-A7046B910FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Bar Buckling Drift (%)</t>
+  </si>
+  <si>
+    <t>longitudinal bar diameter (mm)</t>
+  </si>
+  <si>
+    <t>Column Depth</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,21 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C69019-C006-F54E-AFE5-98A306C84292}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:P143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -501,17 +508,23 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -536,19 +549,25 @@
       <c r="H2" s="2">
         <v>1.5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
+        <v>550</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.95833333333333326</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>1.875</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -573,19 +592,25 @@
       <c r="H3" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
+        <v>550</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.66666666666666674</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>1.4166666666666665</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -610,19 +635,25 @@
       <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
+        <v>550</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>1.1666666666666667</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -647,19 +678,25 @@
       <c r="H5" s="2">
         <v>3.5000000000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
+        <v>550</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>0.87500000000000011</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -684,19 +721,25 @@
       <c r="H6" s="2">
         <v>2.8000000000000003</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.625</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>1.25</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>3.125</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -721,19 +764,25 @@
       <c r="H7" s="2">
         <v>2.1999999999999997</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
         <v>1.1875</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>1.25</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>3.6249999999999996</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -758,19 +807,25 @@
       <c r="H8" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>3.6749999999999998</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -795,19 +850,25 @@
       <c r="H9" s="2">
         <v>1.2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
         <v>2.1375000000000002</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>2.1375000000000002</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>4.2750000000000004</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -832,19 +893,25 @@
       <c r="H10" s="2">
         <v>0.8</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
+        <v>400</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
         <v>1.9124999999999999</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>1.9124999999999999</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>2.8062499999999999</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -869,19 +936,25 @@
       <c r="H11" s="2">
         <v>0.6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
+        <v>400</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>1.5375000000000001</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>2.5625</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -906,19 +979,25 @@
       <c r="H12" s="2">
         <v>1.6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
+        <v>400</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
         <v>1.375</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>4.4375</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -943,19 +1022,25 @@
       <c r="H13" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
+        <v>400</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2">
         <v>1.0625</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>3.125</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -980,19 +1065,25 @@
       <c r="H14" s="2">
         <v>0.70000000000000007</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
+        <v>400</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
         <v>1.15625</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1017,19 +1108,25 @@
       <c r="H15" s="2">
         <v>0.3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2">
         <v>1.15625</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1054,19 +1151,25 @@
       <c r="H16" s="2">
         <v>1.3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
+        <v>400</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
         <v>0.76875000000000004</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1091,19 +1194,25 @@
       <c r="H17" s="2">
         <v>0.70000000000000007</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
+        <v>400</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.76875000000000004</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1128,19 +1237,25 @@
       <c r="H18" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2">
         <v>0.76875000000000004</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1165,19 +1280,25 @@
       <c r="H19" s="2">
         <v>2.5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
+        <v>400</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
         <v>1.25</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>2.5</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>7.5</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1202,19 +1323,25 @@
       <c r="H20" s="2">
         <v>2.5</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
+        <v>400</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
         <v>1.125</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>2.125</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>5.45</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1239,19 +1366,25 @@
       <c r="H21" s="2">
         <v>2.5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
+        <v>400</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>2.125</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>3.6875</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1276,19 +1409,25 @@
       <c r="H22" s="2">
         <v>2.5</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
+        <v>400</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1313,19 +1452,25 @@
       <c r="H23" s="2">
         <v>1.7000000000000002</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
+        <v>550</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2">
         <v>1.3333333333333335</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>2.7878787878787876</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>4.4727272727272727</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1350,19 +1495,25 @@
       <c r="H24" s="2">
         <v>1.7000000000000002</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
+        <v>550</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2">
         <v>1.1515151515151514</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>1.9393939393939394</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>4.0727272727272732</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1387,19 +1538,25 @@
       <c r="H25" s="2">
         <v>2.1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
+        <v>550</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2">
         <v>1.1515151515151514</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>1.7575757575757573</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>4.9939393939393941</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1424,19 +1581,25 @@
       <c r="H26" s="2">
         <v>2.1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
+        <v>550</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
         <v>0.78787878787878796</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>1.5151515151515151</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <v>4.7272727272727275</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1461,19 +1624,25 @@
       <c r="H27" s="2">
         <v>2.1999999999999997</v>
       </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
+      <c r="I27">
+        <v>600</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
       </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <v>4.7085201793721971</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -1498,19 +1667,25 @@
       <c r="H28" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>9.5</v>
+      </c>
+      <c r="K28" s="2">
         <v>1</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>65</v>
       </c>
@@ -1535,19 +1710,25 @@
       <c r="H29" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <v>9.5</v>
+      </c>
+      <c r="K29" s="2">
         <v>0.5</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>89</v>
       </c>
@@ -1572,19 +1753,25 @@
       <c r="H30" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30">
+        <v>305</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30" s="2">
         <v>2.4224343675417663</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>90</v>
       </c>
@@ -1609,19 +1796,25 @@
       <c r="H31" s="2">
         <v>1.5</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
+        <v>305</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+      <c r="K31" s="2">
         <v>4.8508353221957039</v>
       </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>91</v>
       </c>
@@ -1646,19 +1839,25 @@
       <c r="H32" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
+        <v>305</v>
+      </c>
+      <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="K32" s="2">
         <v>2.4224343675417663</v>
       </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>92</v>
       </c>
@@ -1683,19 +1882,25 @@
       <c r="H33" s="2">
         <v>1.5</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
+        <v>305</v>
+      </c>
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2">
         <v>3.0310262529832936</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>93</v>
       </c>
@@ -1720,19 +1925,25 @@
       <c r="H34" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
+        <v>305</v>
+      </c>
+      <c r="J34">
+        <v>22</v>
+      </c>
+      <c r="K34" s="2">
         <v>3.639618138424821</v>
       </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
         <v>4.8508353221957039</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>94</v>
       </c>
@@ -1757,19 +1968,25 @@
       <c r="H35" s="2">
         <v>1.5</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
+        <v>305</v>
+      </c>
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="K35" s="2">
         <v>1.2112171837708832</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>95</v>
       </c>
@@ -1794,19 +2011,25 @@
       <c r="H36" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
+        <v>305</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="K36" s="2">
         <v>2.4224343675417663</v>
       </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>96</v>
       </c>
@@ -1831,19 +2054,25 @@
       <c r="H37" s="2">
         <v>1.5</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
+        <v>305</v>
+      </c>
+      <c r="J37">
+        <v>22</v>
+      </c>
+      <c r="K37" s="2">
         <v>1.8198090692124105</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>97</v>
       </c>
@@ -1868,19 +2097,25 @@
       <c r="H38" s="2">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38">
+        <v>305</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38" s="2">
         <v>1.8198090692124105</v>
       </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>101</v>
       </c>
@@ -1905,19 +2140,25 @@
       <c r="H39" s="2">
         <v>0.3</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
+        <v>305</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39" s="2">
         <v>2.4945295404814005</v>
       </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>102</v>
       </c>
@@ -1942,19 +2183,25 @@
       <c r="H40" s="2">
         <v>2.1999999999999997</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40">
+        <v>457</v>
+      </c>
+      <c r="J40">
+        <v>25.4</v>
+      </c>
+      <c r="K40" s="2">
         <v>1.8294460641399417</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>103</v>
       </c>
@@ -1979,19 +2226,25 @@
       <c r="H41" s="2">
         <v>1.3</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
+        <v>457</v>
+      </c>
+      <c r="J41">
+        <v>25.4</v>
+      </c>
+      <c r="K41" s="2">
         <v>1.1078717201166182</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>133</v>
       </c>
@@ -2016,19 +2269,25 @@
       <c r="H42" s="2">
         <v>0.4</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42">
+        <v>610</v>
+      </c>
+      <c r="J42">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K42" s="2">
         <v>2.0128479657387581</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>5.224839400428265</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>134</v>
       </c>
@@ -2053,19 +2312,25 @@
       <c r="H43" s="2">
         <v>0.4</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43">
+        <v>610</v>
+      </c>
+      <c r="J43">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K43" s="2">
         <v>1.7130620985010707</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
         <v>4.3683083511777294</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>135</v>
       </c>
@@ -2090,19 +2355,25 @@
       <c r="H44" s="2">
         <v>0.5</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
+        <v>610</v>
+      </c>
+      <c r="J44">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K44" s="2">
         <v>2.0128479657387581</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
         <v>6.8522483940042829</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>136</v>
       </c>
@@ -2127,19 +2398,25 @@
       <c r="H45" s="2">
         <v>0.5</v>
       </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
+      <c r="I45">
+        <v>610</v>
+      </c>
+      <c r="J45">
+        <v>19.100000000000001</v>
       </c>
       <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
         <v>5.4817987152034258</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>138</v>
       </c>
@@ -2164,19 +2441,25 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="I46">
+        <v>457.2</v>
+      </c>
+      <c r="J46">
+        <v>31.8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
         <v>2.579418951941352</v>
       </c>
-      <c r="K46" s="2">
+      <c r="M46" s="2">
         <v>2.579418951941352</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>140</v>
       </c>
@@ -2201,19 +2484,25 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
+      <c r="I47">
+        <v>457.2</v>
+      </c>
+      <c r="J47">
+        <v>31.8</v>
       </c>
       <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
         <v>2.0703231061634537</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>141</v>
       </c>
@@ -2238,19 +2527,25 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
+      <c r="I48">
+        <v>457.2</v>
+      </c>
+      <c r="J48">
+        <v>31.8</v>
       </c>
       <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <v>2.0703231061634537</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>145</v>
       </c>
@@ -2275,19 +2570,25 @@
       <c r="H49" s="2">
         <v>3.6999999999999997</v>
       </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
+      <c r="I49">
+        <v>254</v>
+      </c>
+      <c r="J49">
+        <v>19.100000000000001</v>
       </c>
       <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
         <v>9.2519685039370074</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>146</v>
       </c>
@@ -2312,19 +2613,25 @@
       <c r="H50" s="2">
         <v>3.6999999999999997</v>
       </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
+      <c r="I50">
+        <v>254</v>
+      </c>
+      <c r="J50">
+        <v>19.100000000000001</v>
       </c>
       <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
         <v>7.8740157480314963</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>147</v>
       </c>
@@ -2349,19 +2656,25 @@
       <c r="H51" s="2">
         <v>3.6999999999999997</v>
       </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
+      <c r="I51">
+        <v>254</v>
+      </c>
+      <c r="J51">
+        <v>15.9</v>
       </c>
       <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
         <v>7.2834645669291334</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>148</v>
       </c>
@@ -2386,249 +2699,291 @@
       <c r="H52" s="2">
         <v>3.6999999999999997</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
+      <c r="I52">
+        <v>254</v>
+      </c>
+      <c r="J52">
+        <v>15.9</v>
       </c>
       <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <v>6.8897637795275593</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
+        <v>151</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C53">
+        <v>118</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>393</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1415</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>225</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>152</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C54">
+        <v>118</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>393</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1424</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>225</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>153</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C55">
+        <v>118</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>393</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1424</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>225</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>154</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C56">
+        <v>118</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>393</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1424</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>225</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>155</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C57">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>393</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1424</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>225</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>156</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B58" s="2">
         <v>0.33900000000000002</v>
       </c>
-      <c r="C53">
+      <c r="C58">
         <v>40.6</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D58" s="3">
         <v>7.6377952755905518</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E58" s="3">
         <v>407</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F58" s="2">
         <v>1.01</v>
       </c>
-      <c r="G53">
+      <c r="G58">
         <v>351</v>
       </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="J58">
+        <v>15.9</v>
+      </c>
+      <c r="K58" s="2">
         <v>0.99812558575445176</v>
       </c>
-      <c r="J53" s="2">
+      <c r="L58" s="2">
         <v>1.7338331771321465</v>
       </c>
-      <c r="K53" s="2">
+      <c r="M58" s="2">
         <v>1.7478912839737581</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>157</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B59" s="2">
         <v>0.5</v>
       </c>
-      <c r="C54">
+      <c r="C59">
         <v>72.099999999999994</v>
-      </c>
-      <c r="D54" s="3">
-        <v>6.0393442622950824</v>
-      </c>
-      <c r="E54" s="3">
-        <v>454</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="G54">
-        <v>463</v>
-      </c>
-      <c r="H54" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.38002171552660152</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>2.008686210640608</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>158</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C55">
-        <v>71.7</v>
-      </c>
-      <c r="D55" s="3">
-        <v>6.0393442622950824</v>
-      </c>
-      <c r="E55" s="3">
-        <v>454</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="G55">
-        <v>542</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.48859934853420189</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>3.9630836047774154</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>159</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C56">
-        <v>71.8</v>
-      </c>
-      <c r="D56" s="3">
-        <v>6.0393442622950824</v>
-      </c>
-      <c r="E56" s="3">
-        <v>454</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="G56">
-        <v>542</v>
-      </c>
-      <c r="H56" s="2">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.38002171552660152</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>2.6058631921824107</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>160</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C57">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D57" s="3">
-        <v>6.0393442622950824</v>
-      </c>
-      <c r="E57" s="3">
-        <v>454</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="G57">
-        <v>463</v>
-      </c>
-      <c r="H57" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0.48859934853420189</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>3.2573289902280131</v>
-      </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>161</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="C58">
-        <v>101.8</v>
-      </c>
-      <c r="D58" s="3">
-        <v>6.0393442622950824</v>
-      </c>
-      <c r="E58" s="3">
-        <v>454</v>
-      </c>
-      <c r="F58" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="G58">
-        <v>463</v>
-      </c>
-      <c r="H58" s="2">
-        <v>4</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0.2714440825190011</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1.7372421281216071</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>162</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="C59">
-        <v>101.9</v>
       </c>
       <c r="D59" s="3">
         <v>6.0393442622950824</v>
@@ -2643,29 +2998,35 @@
         <v>463</v>
       </c>
       <c r="H59" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.43431053203040176</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
+        <v>3.2</v>
+      </c>
+      <c r="I59">
+        <v>305</v>
+      </c>
+      <c r="J59">
+        <v>19.5</v>
       </c>
       <c r="K59" s="2">
-        <v>3.0401737242128122</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.38002171552660152</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>2.008686210640608</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B60" s="2">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="C60">
-        <v>102</v>
+        <v>71.7</v>
       </c>
       <c r="D60" s="3">
         <v>6.0393442622950824</v>
@@ -2680,29 +3041,35 @@
         <v>542</v>
       </c>
       <c r="H60" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0.21715526601520088</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I60">
+        <v>305</v>
+      </c>
+      <c r="J60">
+        <v>19.5</v>
       </c>
       <c r="K60" s="2">
-        <v>1.2486427795874051</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48859934853420189</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>3.9630836047774154</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B61" s="2">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="C61">
-        <v>102.2</v>
+        <v>71.8</v>
       </c>
       <c r="D61" s="3">
         <v>6.0393442622950824</v>
@@ -2714,214 +3081,250 @@
         <v>2.58</v>
       </c>
       <c r="G61">
+        <v>542</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I61">
+        <v>305</v>
+      </c>
+      <c r="J61">
+        <v>19.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.38002171552660152</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>2.6058631921824107</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>160</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6.0393442622950824</v>
+      </c>
+      <c r="E62" s="3">
+        <v>454</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G62">
         <v>463</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H62" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I62">
+        <v>305</v>
+      </c>
+      <c r="J62">
+        <v>19.5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.48859934853420189</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3.2573289902280131</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>161</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C63">
+        <v>101.8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6.0393442622950824</v>
+      </c>
+      <c r="E63" s="3">
+        <v>454</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G63">
+        <v>463</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>305</v>
+      </c>
+      <c r="J63">
+        <v>19.5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.2714440825190011</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1.7372421281216071</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>162</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="C64">
+        <v>101.9</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6.0393442622950824</v>
+      </c>
+      <c r="E64" s="3">
+        <v>454</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G64">
+        <v>463</v>
+      </c>
+      <c r="H64" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="I64">
+        <v>305</v>
+      </c>
+      <c r="J64">
+        <v>19.5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.43431053203040176</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>3.0401737242128122</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>163</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C65">
+        <v>102</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6.0393442622950824</v>
+      </c>
+      <c r="E65" s="3">
+        <v>454</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G65">
+        <v>542</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I65">
+        <v>305</v>
+      </c>
+      <c r="J65">
+        <v>19.5</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.21715526601520088</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1.2486427795874051</v>
+      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>164</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C66">
+        <v>102.2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>6.0393442622950824</v>
+      </c>
+      <c r="E66" s="3">
+        <v>454</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G66">
+        <v>463</v>
+      </c>
+      <c r="H66" s="2">
         <v>4.3</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I66">
+        <v>305</v>
+      </c>
+      <c r="J66">
+        <v>19.5</v>
+      </c>
+      <c r="K66" s="2">
         <v>0.38002171552660152</v>
       </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
         <v>1.0857763300760044</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>165</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B67" s="2">
         <v>0.42799999999999999</v>
-      </c>
-      <c r="C62">
-        <v>34</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E62" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="G62">
-        <v>570</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>2</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>166</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="C63">
-        <v>34</v>
-      </c>
-      <c r="D63" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E63" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="G63">
-        <v>570</v>
-      </c>
-      <c r="H63" s="2">
-        <v>2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>2</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>4.9969604863221884</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>167</v>
-      </c>
-      <c r="B64" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C64">
-        <v>34</v>
-      </c>
-      <c r="D64" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E64" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="G64">
-        <v>570</v>
-      </c>
-      <c r="H64" s="2">
-        <v>2</v>
-      </c>
-      <c r="I64" s="2">
-        <v>2</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>168</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="C65">
-        <v>34</v>
-      </c>
-      <c r="D65" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E65" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="G65">
-        <v>570</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="I65" s="2">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>4</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>169</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="C66">
-        <v>34</v>
-      </c>
-      <c r="D66" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E66" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="G66">
-        <v>570</v>
-      </c>
-      <c r="H66" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="I66" s="2">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>7.0030395136778107</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>170</v>
-      </c>
-      <c r="B67" s="2">
-        <v>0.45600000000000002</v>
       </c>
       <c r="C67">
         <v>34</v>
@@ -2930,35 +3333,41 @@
         <v>4.7</v>
       </c>
       <c r="E67" s="3">
-        <v>477.8</v>
+        <v>455.6</v>
       </c>
       <c r="F67" s="2">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="G67">
         <v>570</v>
       </c>
       <c r="H67" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>350</v>
+      </c>
+      <c r="J67">
+        <v>19.5</v>
+      </c>
+      <c r="K67" s="2">
         <v>2</v>
       </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B68" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C68">
         <v>34</v>
@@ -2970,32 +3379,38 @@
         <v>455.6</v>
       </c>
       <c r="F68" s="2">
-        <v>2.93</v>
+        <v>1.95</v>
       </c>
       <c r="G68">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H68" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="I68" s="2">
         <v>2</v>
       </c>
-      <c r="J68" s="2">
-        <v>0</v>
+      <c r="I68">
+        <v>350</v>
+      </c>
+      <c r="J68">
+        <v>19.5</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>4.9969604863221884</v>
+      </c>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B69" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C69">
         <v>34</v>
@@ -3007,29 +3422,35 @@
         <v>455.6</v>
       </c>
       <c r="F69" s="2">
-        <v>2.93</v>
+        <v>1.95</v>
       </c>
       <c r="G69">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H69" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="I69" s="2">
         <v>2</v>
       </c>
-      <c r="J69" s="2">
-        <v>0</v>
+      <c r="I69">
+        <v>350</v>
+      </c>
+      <c r="J69">
+        <v>19.5</v>
       </c>
       <c r="K69" s="2">
-        <v>7.0030395136778107</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2">
         <v>0.46200000000000002</v>
@@ -3041,32 +3462,38 @@
         <v>4.7</v>
       </c>
       <c r="E70" s="3">
-        <v>427.8</v>
+        <v>455.6</v>
       </c>
       <c r="F70" s="2">
-        <v>3.2800000000000002</v>
+        <v>2.93</v>
       </c>
       <c r="G70">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H70" s="2">
         <v>1.3</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70">
+        <v>350</v>
+      </c>
+      <c r="J70">
+        <v>19.5</v>
+      </c>
+      <c r="K70" s="2">
         <v>2</v>
       </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
         <v>4</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B71" s="2">
         <v>0.46200000000000002</v>
@@ -3078,10 +3505,10 @@
         <v>4.7</v>
       </c>
       <c r="E71" s="3">
-        <v>427.8</v>
+        <v>455.6</v>
       </c>
       <c r="F71" s="2">
-        <v>3.2800000000000002</v>
+        <v>2.93</v>
       </c>
       <c r="G71">
         <v>570</v>
@@ -3089,212 +3516,248 @@
       <c r="H71" s="2">
         <v>2.7</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71">
+        <v>350</v>
+      </c>
+      <c r="J71">
+        <v>19.5</v>
+      </c>
+      <c r="K71" s="2">
         <v>2</v>
       </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>7.0030395136778107</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
+        <v>170</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C72">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E72" s="3">
+        <v>477.8</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="G72">
+        <v>570</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I72">
+        <v>350</v>
+      </c>
+      <c r="J72">
+        <v>29.9</v>
+      </c>
+      <c r="K72" s="2">
+        <v>2</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>171</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E73" s="3">
+        <v>455.6</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="G73">
+        <v>580</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I73">
+        <v>350</v>
+      </c>
+      <c r="J73">
+        <v>19.5</v>
+      </c>
+      <c r="K73" s="2">
+        <v>2</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>172</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C74">
+        <v>34</v>
+      </c>
+      <c r="D74" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E74" s="3">
+        <v>455.6</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="G74">
+        <v>580</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I74">
+        <v>350</v>
+      </c>
+      <c r="J74">
+        <v>19.5</v>
+      </c>
+      <c r="K74" s="2">
+        <v>2</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>7.0030395136778107</v>
+      </c>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>173</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C75">
+        <v>34</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E75" s="3">
+        <v>427.8</v>
+      </c>
+      <c r="F75" s="2">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="G75">
+        <v>580</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I75">
+        <v>350</v>
+      </c>
+      <c r="J75">
+        <v>16</v>
+      </c>
+      <c r="K75" s="2">
+        <v>2</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>174</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+      <c r="D76" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E76" s="3">
+        <v>427.8</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="G76">
+        <v>570</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I76">
+        <v>350</v>
+      </c>
+      <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2">
+        <v>2</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>187</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B77" s="2">
         <v>0.113</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>24.9</v>
-      </c>
-      <c r="D72" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>497</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="G72">
-        <v>459.5</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>3.0357142857142856</v>
-      </c>
-      <c r="J72" s="2">
-        <v>4.9642857142857144</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>188</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="C73">
-        <v>26.7</v>
-      </c>
-      <c r="D73" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E73" s="3">
-        <v>497</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="G73">
-        <v>459.5</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>2.6428571428571428</v>
-      </c>
-      <c r="J73" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="K73" s="2">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>189</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="C74">
-        <v>26.1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E74" s="3">
-        <v>497</v>
-      </c>
-      <c r="F74" s="2">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="G74">
-        <v>459.5</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2">
-        <v>2.5714285714285712</v>
-      </c>
-      <c r="J74" s="2">
-        <v>4.4285714285714279</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>190</v>
-      </c>
-      <c r="B75" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="C75">
-        <v>25.3</v>
-      </c>
-      <c r="D75" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E75" s="3">
-        <v>497</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="G75">
-        <v>459.5</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>2.6428571428571428</v>
-      </c>
-      <c r="J75" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="K75" s="2">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>191</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0.156</v>
-      </c>
-      <c r="C76">
-        <v>27.1</v>
-      </c>
-      <c r="D76" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>497</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="G76">
-        <v>459.5</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="J76" s="2">
-        <v>4.8571428571428568</v>
-      </c>
-      <c r="K76" s="2">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>192</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="C77">
-        <v>26.8</v>
       </c>
       <c r="D77" s="3">
         <v>3.5</v>
@@ -3311,242 +3774,720 @@
       <c r="H77" s="2">
         <v>0</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77">
+        <v>400</v>
+      </c>
+      <c r="J77">
+        <v>19</v>
+      </c>
+      <c r="K77" s="2">
+        <v>3.0357142857142856</v>
+      </c>
+      <c r="L77" s="2">
+        <v>4.9642857142857144</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>188</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="C78">
+        <v>26.7</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>497</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="G78">
+        <v>459.5</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>400</v>
+      </c>
+      <c r="J78">
+        <v>19</v>
+      </c>
+      <c r="K78" s="2">
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="L78" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>189</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="C79">
+        <v>26.1</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E79" s="3">
+        <v>497</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="G79">
+        <v>459.5</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>400</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+      <c r="K79" s="2">
+        <v>2.5714285714285712</v>
+      </c>
+      <c r="L79" s="2">
+        <v>4.4285714285714279</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>190</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="C80">
+        <v>25.3</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E80" s="3">
+        <v>497</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="G80">
+        <v>459.5</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>400</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80" s="2">
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="L80" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>191</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="C81">
+        <v>27.1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>497</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="G81">
+        <v>459.5</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>400</v>
+      </c>
+      <c r="J81">
+        <v>19</v>
+      </c>
+      <c r="K81" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L81" s="2">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>192</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C82">
+        <v>26.8</v>
+      </c>
+      <c r="D82" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>497</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="G82">
+        <v>459.5</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>400</v>
+      </c>
+      <c r="J82">
+        <v>19</v>
+      </c>
+      <c r="K82" s="2">
         <v>2.7142857142857144</v>
       </c>
-      <c r="J77" s="2">
+      <c r="L82" s="2">
         <v>4.1428571428571423</v>
       </c>
-      <c r="K77" s="2">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>201</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78">
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>102.7</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D83" s="3">
         <v>3.9166666666666665</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E83" s="3">
         <v>517.1</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F83" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G78">
+      <c r="G83">
         <v>793</v>
       </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>152.4</v>
+      </c>
+      <c r="J83">
+        <v>9.5</v>
+      </c>
+      <c r="K83" s="2">
         <v>5.9976545485005861</v>
       </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>202</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C84">
+        <v>86.3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E84" s="3">
+        <v>517.1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G84">
+        <v>793</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>152.4</v>
+      </c>
+      <c r="J84">
+        <v>9.5</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2.4962305243759428</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2.4962305243759428</v>
+      </c>
+      <c r="M84" s="2">
+        <v>8.0080415479979887</v>
+      </c>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>203</v>
       </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79">
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85">
         <v>87.5</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D85" s="3">
         <v>3.9166666666666665</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E85" s="3">
         <v>455.1</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F85" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G79">
+      <c r="G85">
         <v>793</v>
       </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>152.4</v>
+      </c>
+      <c r="J85">
+        <v>9.5</v>
+      </c>
+      <c r="K85" s="2">
         <v>5.9976545485005861</v>
       </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>204</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <v>83.4</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E86" s="3">
+        <v>455.1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G86">
+        <v>793</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>152.4</v>
+      </c>
+      <c r="J86">
+        <v>9.5</v>
+      </c>
+      <c r="K86" s="2">
+        <v>2.9988272742502931</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2.9988272742502931</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>205</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B87" s="2">
         <v>0.2</v>
       </c>
-      <c r="C80">
+      <c r="C87">
         <v>90</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D87" s="3">
         <v>3.9166666666666665</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E87" s="3">
         <v>455.1</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F87" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G80">
+      <c r="G87">
         <v>793</v>
       </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>152.4</v>
+      </c>
+      <c r="J87">
+        <v>9.5</v>
+      </c>
+      <c r="K87" s="2">
         <v>1.9936337745015915</v>
       </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>212</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B88" s="2">
         <v>0.151</v>
       </c>
-      <c r="C81">
+      <c r="C88">
         <v>21.1</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D88" s="3">
         <v>3.2222222222222223</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E88" s="3">
         <v>434.4</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F88" s="2">
         <v>2.4699999999999998</v>
       </c>
-      <c r="G81">
+      <c r="G88">
         <v>476</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H88" s="2">
         <v>0.2</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I88">
+        <v>457.2</v>
+      </c>
+      <c r="J88">
+        <v>28.7</v>
+      </c>
+      <c r="K88" s="2">
         <v>3.7944610371979359</v>
       </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
         <v>9.4827586206896548</v>
       </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>213</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B89" s="2">
         <v>0.60499999999999998</v>
       </c>
-      <c r="C82">
+      <c r="C89">
         <v>21.1</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D89" s="3">
         <v>3.2222222222222223</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E89" s="3">
         <v>434.4</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F89" s="2">
         <v>2.4699999999999998</v>
       </c>
-      <c r="G82">
+      <c r="G89">
         <v>476</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H89" s="2">
         <v>0.2</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I89">
+        <v>457.2</v>
+      </c>
+      <c r="J89">
+        <v>28.7</v>
+      </c>
+      <c r="K89" s="2">
         <v>1.8938365462937823</v>
       </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
         <v>3.7944610371979359</v>
       </c>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>214</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B90" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="C83">
+      <c r="C90">
         <v>21.8</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D90" s="3">
         <v>3.2222222222222223</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E90" s="3">
         <v>434.4</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F90" s="2">
         <v>2.4699999999999998</v>
       </c>
-      <c r="G83">
+      <c r="G90">
         <v>476</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H90" s="2">
         <v>0.2</v>
       </c>
-      <c r="I83" s="2">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
+      <c r="I90">
+        <v>457.2</v>
+      </c>
+      <c r="J90">
+        <v>28.7</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
         <v>9.4827586206896548</v>
       </c>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P101" s="1"/>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P116" s="1"/>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P117" s="1"/>
+    </row>
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P118" s="1"/>
+    </row>
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P119" s="1"/>
+    </row>
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P120" s="1"/>
+    </row>
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P121" s="1"/>
+    </row>
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P122" s="1"/>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P123" s="1"/>
+    </row>
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P124" s="1"/>
+    </row>
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P125" s="1"/>
+    </row>
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P126" s="1"/>
+    </row>
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P127" s="1"/>
+    </row>
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P128" s="1"/>
+    </row>
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P129" s="1"/>
+    </row>
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P131" s="1"/>
+    </row>
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P132" s="1"/>
+    </row>
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P133" s="1"/>
+    </row>
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P134" s="1"/>
+    </row>
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P135" s="1"/>
+    </row>
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P136" s="1"/>
+    </row>
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P137" s="1"/>
+    </row>
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P138" s="1"/>
+    </row>
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P139" s="1"/>
+    </row>
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P140" s="1"/>
+    </row>
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P141" s="1"/>
+    </row>
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P142" s="1"/>
+    </row>
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P143" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:K83">
+  <conditionalFormatting sqref="K2:M90">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
